--- a/Berita Acara SYMA/22 November 2023 - SYMA - Panji.xlsx
+++ b/Berita Acara SYMA/22 November 2023 - SYMA - Panji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Berita Acara Vendor\Berita Acara SYMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266CCE7E-F510-4B80-B9B0-43FABD36D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8319A349-E217-4F80-A597-07F67B686ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>GOODS RECEIVED NOTE</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Tidak ada label size, jahitan ngelipat, kotor, resleting ktor</t>
-  </si>
-  <si>
-    <t>Kain gelang tangan tidak mengkerut</t>
   </si>
 </sst>
 </file>
@@ -614,6 +611,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -624,12 +644,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -638,23 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1030,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.85" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1119,10 +1116,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="G9" s="42">
+      <c r="G9" s="50">
         <v>45252</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
@@ -1167,36 +1164,36 @@
       <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="45" t="s">
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="26" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1203,7 @@
       <c r="I16" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:10" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
@@ -1306,32 +1303,30 @@
       <c r="F20" s="28">
         <v>100</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29">
+      <c r="G20" s="30">
         <v>100</v>
       </c>
+      <c r="H20" s="29"/>
       <c r="I20" s="39">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J20" s="38" t="s">
-        <v>34</v>
-      </c>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="27">
         <f t="shared" ref="G21:H21" si="1">SUM(G17:G20)</f>
-        <v>495</v>
+        <v>595</v>
       </c>
       <c r="H21" s="27">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="I21" s="27">
         <f>SUM(I17:I20)</f>
@@ -1349,12 +1344,12 @@
       <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
@@ -1432,34 +1427,34 @@
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
-      <c r="F33" s="42">
+      <c r="F33" s="50">
         <f>G9</f>
         <v>45252</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="I33" s="42">
+      <c r="G33" s="50"/>
+      <c r="I33" s="50">
         <v>45257</v>
       </c>
-      <c r="J33" s="42"/>
+      <c r="J33" s="50"/>
     </row>
     <row r="34" spans="1:10" ht="12" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
     </row>
     <row r="39" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J39" s="51"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="J40" s="51"/>
+      <c r="J40" s="43"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1467,6 +1462,12 @@
     <protectedRange sqref="A9:A13" name="Penerimaan_1_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="J39:J40"/>
@@ -1476,12 +1477,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
